--- a/01_要件定義/07_業務フロー.xlsx
+++ b/01_要件定義/07_業務フロー.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fs6-20\tokyo$\ビジネスインテグレーション部\010_DIS\2021A3B新卒オープン研修\20_教材\20_テキスト\10_編集中\40_システム開発体験\40_総合演習\システム開発体験_納品用_改\000-基本計画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\01_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D960ABB-342F-4CDA-9CDC-895C5B09E68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="-15" windowWidth="7650" windowHeight="8730" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -19,12 +20,193 @@
     <sheet name="業務フロー図（ショッピング機能会員情報）" sheetId="16" r:id="rId5"/>
     <sheet name="業務フロー図（管理機能）" sheetId="17" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>奈良田 岬</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A9521DAF-A301-4973-A82D-AB43C3BB71DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL45" authorId="0" shapeId="0" xr:uid="{AEBB6157-B483-4F3D-8E67-0BACA75E842B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>奈良田 岬</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{561139B5-9146-41CC-91E2-F403A737738E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>奈良田 岬</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{4C1171A9-1653-4761-9198-F29C5D148C81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>奈良田 岬</author>
+  </authors>
+  <commentList>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{33834C07-1466-4206-A2C0-CD35BBABF52C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奈良田 岬:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+お客様に相談する。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -462,15 +644,43 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>奈良田</t>
+    <rPh sb="0" eb="3">
+      <t>ナラタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奈良田</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奈良田</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>奈良田</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>奈良田</t>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -558,6 +768,21 @@
       <sz val="6"/>
       <name val="明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1274,7 +1499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1379,7 +1604,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,7 +1689,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1483,7 +1708,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,7 +1730,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1751,6 +1976,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
@@ -1799,10 +2027,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1"/>
-    <cellStyle name="標準_機能一覧_テンプレート" xfId="2"/>
-    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="3"/>
-    <cellStyle name="標準_詳細設計書_サンプル" xfId="4"/>
+    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_機能一覧_テンプレート" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_受入登録（詳細）2000バージョン" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_詳細設計書_サンプル" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1834,7 +2062,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1031" name="Line 7"/>
+        <xdr:cNvPr id="1031" name="Line 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1882,7 +2116,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="Line 8"/>
+        <xdr:cNvPr id="1032" name="Line 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1935,7 +2175,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="AutoShape 2"/>
+        <xdr:cNvPr id="4098" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1997,7 +2243,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4099" name="AutoShape 3"/>
+        <xdr:cNvPr id="4099" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2059,7 +2311,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4100" name="AutoShape 4"/>
+        <xdr:cNvPr id="4100" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2121,7 +2379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4101" name="AutoShape 5"/>
+        <xdr:cNvPr id="4101" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2183,7 +2447,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4107" name="Line 11"/>
+        <xdr:cNvPr id="4107" name="Line 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2231,7 +2501,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4108" name="Line 12"/>
+        <xdr:cNvPr id="4108" name="Line 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2280,7 +2556,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4109" name="AutoShape 13"/>
+        <xdr:cNvPr id="4109" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2347,7 +2629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 5"/>
+        <xdr:cNvPr id="3" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2409,7 +2697,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 13"/>
+        <xdr:cNvPr id="5" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2471,7 +2765,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 4"/>
+        <xdr:cNvPr id="7" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2548,7 +2848,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="2"/>
           <a:endCxn id="3" idx="1"/>
@@ -2605,7 +2911,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="5"/>
           <a:endCxn id="89" idx="1"/>
@@ -2662,7 +2974,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="1"/>
           <a:endCxn id="3" idx="4"/>
@@ -2719,7 +3037,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="カギ線コネクタ 31"/>
+        <xdr:cNvPr id="32" name="カギ線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="95" idx="1"/>
@@ -2778,7 +3102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="AutoShape 2"/>
+        <xdr:cNvPr id="35" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2840,7 +3170,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="68" idx="2"/>
           <a:endCxn id="35" idx="3"/>
@@ -2897,7 +3233,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="2"/>
           <a:endCxn id="35" idx="0"/>
@@ -2954,7 +3296,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="AutoShape 5"/>
+        <xdr:cNvPr id="45" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3038,7 +3386,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="AutoShape 4"/>
+        <xdr:cNvPr id="56" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3115,7 +3469,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="56" idx="1"/>
           <a:endCxn id="45" idx="4"/>
@@ -3172,7 +3532,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="89" idx="2"/>
           <a:endCxn id="5" idx="0"/>
@@ -3229,7 +3595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="AutoShape 5"/>
+        <xdr:cNvPr id="64" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3298,7 +3670,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="2"/>
           <a:endCxn id="45" idx="1"/>
@@ -3355,7 +3733,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="AutoShape 4"/>
+        <xdr:cNvPr id="68" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3432,7 +3816,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="カギ線コネクタ 72"/>
+        <xdr:cNvPr id="73" name="カギ線コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="2"/>
           <a:endCxn id="45" idx="5"/>
@@ -3489,7 +3879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="AutoShape 4"/>
+        <xdr:cNvPr id="76" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3588,7 +3984,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="64" idx="4"/>
           <a:endCxn id="76" idx="1"/>
@@ -3645,7 +4047,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="AutoShape 3"/>
+        <xdr:cNvPr id="87" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3707,7 +4115,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="AutoShape 3"/>
+        <xdr:cNvPr id="89" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3769,7 +4183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="AutoShape 3"/>
+        <xdr:cNvPr id="92" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3831,7 +4251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="AutoShape 3"/>
+        <xdr:cNvPr id="95" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3893,7 +4319,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="Text Box 9"/>
+        <xdr:cNvPr id="104" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3974,7 +4406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="Text Box 9"/>
+        <xdr:cNvPr id="105" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4055,7 +4493,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="AutoShape 4"/>
+        <xdr:cNvPr id="34" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4132,7 +4576,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="92" idx="2"/>
           <a:endCxn id="64" idx="1"/>
@@ -4189,7 +4639,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="AutoShape 13"/>
+        <xdr:cNvPr id="33" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4258,7 +4714,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="2"/>
           <a:endCxn id="64" idx="5"/>
@@ -4320,7 +4782,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5"/>
+        <xdr:cNvPr id="2" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4404,7 +4872,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 4"/>
+        <xdr:cNvPr id="4" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4481,7 +4955,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="2"/>
           <a:endCxn id="2" idx="1"/>
@@ -4538,7 +5018,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="4"/>
           <a:endCxn id="4" idx="1"/>
@@ -4595,7 +5081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4657,7 +5149,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="1"/>
           <a:endCxn id="9" idx="2"/>
@@ -4714,7 +5212,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="2"/>
           <a:endCxn id="9" idx="0"/>
@@ -4771,7 +5275,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="2"/>
           <a:endCxn id="17" idx="1"/>
@@ -4828,7 +5338,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 5"/>
+        <xdr:cNvPr id="17" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4919,7 +5435,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="AutoShape 4"/>
+        <xdr:cNvPr id="19" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4996,7 +5518,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="AutoShape 4"/>
+        <xdr:cNvPr id="21" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5073,7 +5601,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="1"/>
           <a:endCxn id="17" idx="4"/>
@@ -5130,7 +5664,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="AutoShape 3"/>
+        <xdr:cNvPr id="24" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5192,7 +5732,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="AutoShape 3"/>
+        <xdr:cNvPr id="26" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5254,7 +5800,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="AutoShape 3"/>
+        <xdr:cNvPr id="27" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5316,7 +5868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="AutoShape 3"/>
+        <xdr:cNvPr id="48" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5385,7 +5943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="AutoShape 5"/>
+        <xdr:cNvPr id="50" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5476,7 +6040,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="AutoShape 4"/>
+        <xdr:cNvPr id="51" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5553,7 +6123,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="50" idx="4"/>
           <a:endCxn id="51" idx="1"/>
@@ -5610,7 +6186,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52"/>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="2"/>
           <a:endCxn id="50" idx="1"/>
@@ -5667,7 +6249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="AutoShape 5"/>
+        <xdr:cNvPr id="59" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5780,7 +6368,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="AutoShape 4"/>
+        <xdr:cNvPr id="60" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5879,7 +6473,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="59" idx="4"/>
           <a:endCxn id="60" idx="1"/>
@@ -5936,7 +6536,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="AutoShape 3"/>
+        <xdr:cNvPr id="64" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6027,7 +6633,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="64" idx="2"/>
           <a:endCxn id="59" idx="1"/>
@@ -6084,7 +6696,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 13"/>
+        <xdr:cNvPr id="3" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6153,7 +6771,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="AutoShape 13"/>
+        <xdr:cNvPr id="77" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6222,7 +6846,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="AutoShape 13"/>
+        <xdr:cNvPr id="78" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6296,7 +6926,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6358,7 +6994,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="1"/>
           <a:endCxn id="6" idx="2"/>
@@ -6415,7 +7057,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="2"/>
           <a:endCxn id="6" idx="0"/>
@@ -6472,7 +7120,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
           <a:endCxn id="10" idx="1"/>
@@ -6529,7 +7183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 5"/>
+        <xdr:cNvPr id="10" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6598,7 +7258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 4"/>
+        <xdr:cNvPr id="11" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6675,7 +7341,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 4"/>
+        <xdr:cNvPr id="12" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6752,7 +7424,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="1"/>
           <a:endCxn id="10" idx="4"/>
@@ -6809,7 +7487,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="AutoShape 3"/>
+        <xdr:cNvPr id="15" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6893,7 +7577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 3"/>
+        <xdr:cNvPr id="16" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6955,7 +7645,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="AutoShape 3"/>
+        <xdr:cNvPr id="17" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7046,7 +7742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="AutoShape 5"/>
+        <xdr:cNvPr id="18" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7137,7 +7839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="AutoShape 4"/>
+        <xdr:cNvPr id="19" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7214,7 +7922,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="1"/>
           <a:endCxn id="18" idx="4"/>
@@ -7271,7 +7985,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="18" idx="1"/>
@@ -7328,7 +8048,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="AutoShape 5"/>
+        <xdr:cNvPr id="22" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7397,7 +8123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="AutoShape 3"/>
+        <xdr:cNvPr id="25" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7488,7 +8220,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="2"/>
           <a:endCxn id="22" idx="1"/>
@@ -7545,7 +8283,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="AutoShape 13"/>
+        <xdr:cNvPr id="27" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7614,7 +8358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="AutoShape 13"/>
+        <xdr:cNvPr id="28" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7683,7 +8433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="AutoShape 13"/>
+        <xdr:cNvPr id="29" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7752,7 +8508,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="AutoShape 3"/>
+        <xdr:cNvPr id="32" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7836,7 +8598,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="5"/>
           <a:endCxn id="32" idx="1"/>
@@ -7893,7 +8661,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="AutoShape 4"/>
+        <xdr:cNvPr id="36" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7970,7 +8744,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="32" idx="2"/>
           <a:endCxn id="41" idx="0"/>
@@ -8027,7 +8807,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="AutoShape 2"/>
+        <xdr:cNvPr id="41" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8089,7 +8875,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="2"/>
           <a:endCxn id="36" idx="1"/>
@@ -8146,7 +8938,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="AutoShape 3"/>
+        <xdr:cNvPr id="46" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8230,7 +9028,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="カギ線コネクタ 46"/>
+        <xdr:cNvPr id="47" name="カギ線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="5"/>
           <a:endCxn id="46" idx="1"/>
@@ -8287,7 +9091,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="2"/>
           <a:endCxn id="50" idx="0"/>
@@ -8344,7 +9154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="AutoShape 2"/>
+        <xdr:cNvPr id="50" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8406,7 +9222,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="50" idx="2"/>
           <a:endCxn id="68" idx="1"/>
@@ -8463,7 +9285,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="AutoShape 4"/>
+        <xdr:cNvPr id="68" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8562,7 +9390,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="AutoShape 4"/>
+        <xdr:cNvPr id="70" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8639,7 +9473,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="70" idx="1"/>
           <a:endCxn id="22" idx="4"/>
@@ -8696,7 +9536,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="AutoShape 3"/>
+        <xdr:cNvPr id="79" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8780,7 +9626,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="AutoShape 4"/>
+        <xdr:cNvPr id="80" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8857,7 +9709,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="79" idx="2"/>
           <a:endCxn id="82" idx="0"/>
@@ -8914,7 +9772,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="AutoShape 2"/>
+        <xdr:cNvPr id="82" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8976,7 +9840,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="82" idx="2"/>
           <a:endCxn id="80" idx="1"/>
@@ -9033,7 +9903,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="カギ線コネクタ 86"/>
+        <xdr:cNvPr id="87" name="カギ線コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="5"/>
           <a:endCxn id="79" idx="1"/>
@@ -9439,17 +10315,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="4"/>
+    <col min="1" max="16384" width="2.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1">
@@ -11906,7 +12780,9 @@
       <c r="AI47" s="39"/>
       <c r="AJ47" s="39"/>
       <c r="AK47" s="39"/>
-      <c r="AL47" s="38"/>
+      <c r="AL47" s="38">
+        <v>45537</v>
+      </c>
       <c r="AM47" s="38"/>
       <c r="AN47" s="38"/>
       <c r="AO47" s="38"/>
@@ -12016,7 +12892,9 @@
       <c r="AI49" s="41"/>
       <c r="AJ49" s="41"/>
       <c r="AK49" s="42"/>
-      <c r="AL49" s="46"/>
+      <c r="AL49" s="46" t="s">
+        <v>50</v>
+      </c>
       <c r="AM49" s="47"/>
       <c r="AN49" s="47"/>
       <c r="AO49" s="47"/>
@@ -12215,20 +13093,25 @@
     <oddFooter>&amp;C&amp;8- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+      <selection activeCell="G5" sqref="G5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="16"/>
+    <col min="1" max="2" width="2.6640625" style="16"/>
+    <col min="3" max="6" width="3.44140625" style="16" customWidth="1"/>
+    <col min="7" max="10" width="2.6640625" style="16"/>
+    <col min="11" max="20" width="3" style="16" customWidth="1"/>
+    <col min="21" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
@@ -12341,7 +13224,7 @@
       <c r="AY2" s="79"/>
       <c r="AZ2" s="80"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
       <c r="A4" s="69" t="s">
         <v>11</v>
@@ -12412,11 +13295,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="72"/>
-      <c r="C5" s="74"/>
+      <c r="C5" s="74">
+        <v>45537</v>
+      </c>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
-      <c r="G5" s="72"/>
+      <c r="G5" s="72" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
@@ -12473,11 +13360,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
+      <c r="C6" s="67">
+        <v>45537</v>
+      </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
+      <c r="G6" s="66" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
@@ -12493,7 +13384,9 @@
       <c r="R6" s="68"/>
       <c r="S6" s="68"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="66"/>
+      <c r="U6" s="66" t="s">
+        <v>51</v>
+      </c>
       <c r="V6" s="66"/>
       <c r="W6" s="66"/>
       <c r="X6" s="66"/>
@@ -12532,11 +13425,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="67">
+        <v>45537</v>
+      </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="66"/>
+      <c r="G7" s="66" t="s">
+        <v>52</v>
+      </c>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
@@ -12552,7 +13449,9 @@
       <c r="R7" s="68"/>
       <c r="S7" s="68"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="66" t="s">
+        <v>51</v>
+      </c>
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
@@ -15037,18 +15936,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BJ46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AG2"/>
+      <selection activeCell="AW1" sqref="AW1:AY2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -15171,7 +16070,7 @@
       <c r="AX2" s="146"/>
       <c r="AY2" s="147"/>
     </row>
-    <row r="3" spans="1:51" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
       <c r="A4" s="132" t="s">
         <v>26</v>
@@ -15186,7 +16085,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="132"/>
     </row>
-    <row r="5" spans="1:51" ht="11.25" thickBot="1">
+    <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
       <c r="A5" s="133"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -17540,18 +18439,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH42" sqref="BH42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -17598,21 +18497,2603 @@
       <c r="AI1" s="148"/>
       <c r="AJ1" s="148"/>
       <c r="AK1" s="148"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
+      <c r="AL1" s="164">
+        <v>45537</v>
+      </c>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
       <c r="AU1" s="154" t="s">
         <v>19</v>
       </c>
       <c r="AV1" s="155"/>
       <c r="AW1" s="158">
         <v>1</v>
+      </c>
+      <c r="AX1" s="159"/>
+      <c r="AY1" s="160"/>
+    </row>
+    <row r="2" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="151"/>
+      <c r="AJ2" s="151"/>
+      <c r="AK2" s="151"/>
+      <c r="AL2" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM2" s="153"/>
+      <c r="AN2" s="153"/>
+      <c r="AO2" s="153"/>
+      <c r="AP2" s="153"/>
+      <c r="AQ2" s="153"/>
+      <c r="AR2" s="153"/>
+      <c r="AS2" s="153"/>
+      <c r="AT2" s="153"/>
+      <c r="AU2" s="156"/>
+      <c r="AV2" s="157"/>
+      <c r="AW2" s="161"/>
+      <c r="AX2" s="162"/>
+      <c r="AY2" s="163"/>
+    </row>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
+    <row r="4" spans="1:52">
+      <c r="A4" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+    </row>
+    <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
+      <c r="A5" s="133"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="1:52" ht="12">
+      <c r="A6" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="166"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="26"/>
+    </row>
+    <row r="7" spans="1:52" ht="12">
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="26"/>
+    </row>
+    <row r="8" spans="1:52" ht="12">
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="27"/>
+      <c r="AZ8" s="26"/>
+    </row>
+    <row r="9" spans="1:52" ht="12">
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="26"/>
+    </row>
+    <row r="10" spans="1:52" ht="12">
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="27"/>
+      <c r="AZ10" s="26"/>
+    </row>
+    <row r="11" spans="1:52" ht="12">
+      <c r="A11" s="169"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="26"/>
+    </row>
+    <row r="12" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A12" s="171" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="172"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="26"/>
+    </row>
+    <row r="13" spans="1:52" ht="12">
+      <c r="A13" s="173"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="27"/>
+      <c r="AZ13" s="26"/>
+    </row>
+    <row r="14" spans="1:52" ht="12">
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="26"/>
+    </row>
+    <row r="15" spans="1:52" ht="12">
+      <c r="A15" s="173"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="26"/>
+    </row>
+    <row r="16" spans="1:52" ht="12">
+      <c r="A16" s="173"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="26"/>
+    </row>
+    <row r="17" spans="1:52" ht="12">
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="27"/>
+      <c r="AZ17" s="26"/>
+    </row>
+    <row r="18" spans="1:52" ht="12">
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="27"/>
+      <c r="AZ18" s="26"/>
+    </row>
+    <row r="19" spans="1:52" ht="12">
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="26"/>
+    </row>
+    <row r="20" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A20" s="173"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="26"/>
+    </row>
+    <row r="21" spans="1:52" ht="11.25" customHeight="1">
+      <c r="A21" s="173"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="25"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="26"/>
+    </row>
+    <row r="22" spans="1:52" ht="11.25" customHeight="1">
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="26"/>
+    </row>
+    <row r="23" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="26"/>
+    </row>
+    <row r="24" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="26"/>
+    </row>
+    <row r="25" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A25" s="173"/>
+      <c r="B25" s="174"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="26"/>
+    </row>
+    <row r="26" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A26" s="173"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="27"/>
+      <c r="AZ26" s="26"/>
+    </row>
+    <row r="27" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A27" s="173"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="26"/>
+    </row>
+    <row r="28" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A28" s="173"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="25"/>
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="26"/>
+    </row>
+    <row r="29" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A29" s="173"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="25"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="26"/>
+    </row>
+    <row r="30" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A30" s="173"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="26"/>
+    </row>
+    <row r="31" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A31" s="173"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="26"/>
+    </row>
+    <row r="32" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A32" s="173"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="25"/>
+      <c r="AY32" s="27"/>
+      <c r="AZ32" s="26"/>
+    </row>
+    <row r="33" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A33" s="173"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="25"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="25"/>
+      <c r="AY33" s="27"/>
+      <c r="AZ33" s="26"/>
+    </row>
+    <row r="34" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A34" s="173"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="25"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="27"/>
+      <c r="AZ34" s="26"/>
+    </row>
+    <row r="35" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A35" s="175"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="28"/>
+      <c r="AU35" s="28"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="28"/>
+      <c r="AX35" s="28"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="26"/>
+    </row>
+    <row r="36" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A36" s="177" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="168"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="25"/>
+      <c r="AQ36" s="25"/>
+      <c r="AR36" s="25"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="25"/>
+      <c r="AX36" s="25"/>
+      <c r="AY36" s="27"/>
+      <c r="AZ36" s="26"/>
+    </row>
+    <row r="37" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A37" s="177"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="25"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
+      <c r="AL37" s="25"/>
+      <c r="AM37" s="25"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="25"/>
+      <c r="AP37" s="25"/>
+      <c r="AQ37" s="25"/>
+      <c r="AR37" s="25"/>
+      <c r="AS37" s="25"/>
+      <c r="AT37" s="25"/>
+      <c r="AU37" s="25"/>
+      <c r="AV37" s="25"/>
+      <c r="AW37" s="25"/>
+      <c r="AX37" s="25"/>
+      <c r="AY37" s="27"/>
+      <c r="AZ37" s="26"/>
+    </row>
+    <row r="38" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A38" s="177"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="25"/>
+      <c r="AM38" s="25"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="25"/>
+      <c r="AP38" s="25"/>
+      <c r="AQ38" s="25"/>
+      <c r="AR38" s="25"/>
+      <c r="AS38" s="25"/>
+      <c r="AT38" s="25"/>
+      <c r="AU38" s="25"/>
+      <c r="AV38" s="25"/>
+      <c r="AW38" s="25"/>
+      <c r="AX38" s="25"/>
+      <c r="AY38" s="27"/>
+      <c r="AZ38" s="26"/>
+    </row>
+    <row r="39" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A39" s="177"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="25"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="25"/>
+      <c r="AP39" s="25"/>
+      <c r="AQ39" s="25"/>
+      <c r="AR39" s="25"/>
+      <c r="AS39" s="25"/>
+      <c r="AT39" s="25"/>
+      <c r="AU39" s="25"/>
+      <c r="AV39" s="25"/>
+      <c r="AW39" s="25"/>
+      <c r="AX39" s="25"/>
+      <c r="AY39" s="27"/>
+      <c r="AZ39" s="26"/>
+    </row>
+    <row r="40" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A40" s="177"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="25"/>
+      <c r="AN40" s="25"/>
+      <c r="AO40" s="25"/>
+      <c r="AP40" s="25"/>
+      <c r="AQ40" s="25"/>
+      <c r="AR40" s="25"/>
+      <c r="AS40" s="25"/>
+      <c r="AT40" s="25"/>
+      <c r="AU40" s="25"/>
+      <c r="AV40" s="25"/>
+      <c r="AW40" s="25"/>
+      <c r="AX40" s="25"/>
+      <c r="AY40" s="27"/>
+      <c r="AZ40" s="26"/>
+    </row>
+    <row r="41" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A41" s="177"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
+      <c r="AL41" s="25"/>
+      <c r="AM41" s="25"/>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="25"/>
+      <c r="AP41" s="25"/>
+      <c r="AQ41" s="25"/>
+      <c r="AR41" s="25"/>
+      <c r="AS41" s="25"/>
+      <c r="AT41" s="25"/>
+      <c r="AU41" s="25"/>
+      <c r="AV41" s="25"/>
+      <c r="AW41" s="25"/>
+      <c r="AX41" s="25"/>
+      <c r="AY41" s="27"/>
+      <c r="AZ41" s="26"/>
+    </row>
+    <row r="42" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A42" s="177"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="25"/>
+      <c r="AJ42" s="25"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="25"/>
+      <c r="AM42" s="25"/>
+      <c r="AN42" s="25"/>
+      <c r="AO42" s="25"/>
+      <c r="AP42" s="25"/>
+      <c r="AQ42" s="25"/>
+      <c r="AR42" s="25"/>
+      <c r="AS42" s="25"/>
+      <c r="AT42" s="25"/>
+      <c r="AU42" s="25"/>
+      <c r="AV42" s="25"/>
+      <c r="AW42" s="25"/>
+      <c r="AX42" s="25"/>
+      <c r="AY42" s="27"/>
+      <c r="AZ42" s="26"/>
+    </row>
+    <row r="43" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A43" s="177"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="25"/>
+      <c r="AJ43" s="25"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="25"/>
+      <c r="AM43" s="25"/>
+      <c r="AN43" s="25"/>
+      <c r="AO43" s="25"/>
+      <c r="AP43" s="25"/>
+      <c r="AQ43" s="25"/>
+      <c r="AR43" s="25"/>
+      <c r="AS43" s="25"/>
+      <c r="AT43" s="25"/>
+      <c r="AU43" s="25"/>
+      <c r="AV43" s="25"/>
+      <c r="AW43" s="25"/>
+      <c r="AX43" s="25"/>
+      <c r="AY43" s="27"/>
+      <c r="AZ43" s="26"/>
+    </row>
+    <row r="44" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A44" s="177"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="25"/>
+      <c r="AO44" s="25"/>
+      <c r="AP44" s="25"/>
+      <c r="AQ44" s="25"/>
+      <c r="AR44" s="25"/>
+      <c r="AS44" s="25"/>
+      <c r="AT44" s="25"/>
+      <c r="AU44" s="25"/>
+      <c r="AV44" s="25"/>
+      <c r="AW44" s="25"/>
+      <c r="AX44" s="25"/>
+      <c r="AY44" s="27"/>
+      <c r="AZ44" s="26"/>
+    </row>
+    <row r="45" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A45" s="167"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
+      <c r="AG45" s="25"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25"/>
+      <c r="AJ45" s="25"/>
+      <c r="AK45" s="25"/>
+      <c r="AL45" s="25"/>
+      <c r="AM45" s="25"/>
+      <c r="AN45" s="25"/>
+      <c r="AO45" s="25"/>
+      <c r="AP45" s="25"/>
+      <c r="AQ45" s="25"/>
+      <c r="AR45" s="25"/>
+      <c r="AS45" s="25"/>
+      <c r="AT45" s="25"/>
+      <c r="AU45" s="25"/>
+      <c r="AV45" s="25"/>
+      <c r="AW45" s="25"/>
+      <c r="AX45" s="25"/>
+      <c r="AY45" s="27"/>
+      <c r="AZ45" s="26"/>
+    </row>
+    <row r="46" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A46" s="167"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="25"/>
+      <c r="AJ46" s="25"/>
+      <c r="AK46" s="25"/>
+      <c r="AL46" s="25"/>
+      <c r="AM46" s="25"/>
+      <c r="AN46" s="25"/>
+      <c r="AO46" s="25"/>
+      <c r="AP46" s="25"/>
+      <c r="AQ46" s="25"/>
+      <c r="AR46" s="25"/>
+      <c r="AS46" s="25"/>
+      <c r="AT46" s="25"/>
+      <c r="AU46" s="25"/>
+      <c r="AV46" s="25"/>
+      <c r="AW46" s="25"/>
+      <c r="AX46" s="25"/>
+      <c r="AY46" s="27"/>
+      <c r="AZ46" s="26"/>
+    </row>
+    <row r="47" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A47" s="167"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="25"/>
+      <c r="AK47" s="25"/>
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="25"/>
+      <c r="AP47" s="25"/>
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
+      <c r="AS47" s="25"/>
+      <c r="AT47" s="25"/>
+      <c r="AU47" s="25"/>
+      <c r="AV47" s="25"/>
+      <c r="AW47" s="25"/>
+      <c r="AX47" s="25"/>
+      <c r="AY47" s="27"/>
+      <c r="AZ47" s="26"/>
+    </row>
+    <row r="48" spans="1:52" ht="10.5" customHeight="1">
+      <c r="A48" s="167"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="25"/>
+      <c r="AK48" s="25"/>
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="25"/>
+      <c r="AN48" s="25"/>
+      <c r="AO48" s="25"/>
+      <c r="AP48" s="25"/>
+      <c r="AQ48" s="25"/>
+      <c r="AR48" s="25"/>
+      <c r="AS48" s="25"/>
+      <c r="AT48" s="25"/>
+      <c r="AU48" s="25"/>
+      <c r="AV48" s="25"/>
+      <c r="AW48" s="25"/>
+      <c r="AX48" s="25"/>
+      <c r="AY48" s="27"/>
+      <c r="AZ48" s="26"/>
+    </row>
+    <row r="49" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A49" s="178"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="30"/>
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30"/>
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="30"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="30"/>
+      <c r="AU49" s="30"/>
+      <c r="AV49" s="30"/>
+      <c r="AW49" s="30"/>
+      <c r="AX49" s="30"/>
+      <c r="AY49" s="31"/>
+      <c r="AZ49" s="26"/>
+    </row>
+    <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:B11"/>
+    <mergeCell ref="A12:B35"/>
+    <mergeCell ref="A36:B49"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AZ50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AG1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
+  <cols>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
+      <c r="A1" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="148" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="148" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
+      <c r="AK1" s="148"/>
+      <c r="AL1" s="164">
+        <v>45537</v>
+      </c>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
+      <c r="AU1" s="154" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV1" s="155"/>
+      <c r="AW1" s="158">
+        <v>2</v>
       </c>
       <c r="AX1" s="159"/>
       <c r="AY1" s="160"/>
@@ -17676,7 +21157,7 @@
       <c r="AX2" s="162"/>
       <c r="AY2" s="163"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
       <c r="A4" s="132" t="s">
         <v>17</v>
@@ -17691,7 +21172,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="132"/>
     </row>
-    <row r="5" spans="1:52" ht="11.25" thickBot="1">
+    <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
       <c r="A5" s="133"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -17704,10 +21185,10 @@
       <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:52" ht="12">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="165"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -17728,7 +21209,7 @@
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
+      <c r="W6" s="35"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
@@ -17760,8 +21241,8 @@
       <c r="AZ6" s="26"/>
     </row>
     <row r="7" spans="1:52" ht="12">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -17782,7 +21263,7 @@
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
@@ -17814,8 +21295,8 @@
       <c r="AZ7" s="26"/>
     </row>
     <row r="8" spans="1:52" ht="12">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -17836,7 +21317,7 @@
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
@@ -17868,8 +21349,8 @@
       <c r="AZ8" s="26"/>
     </row>
     <row r="9" spans="1:52" ht="12">
-      <c r="A9" s="166"/>
-      <c r="B9" s="167"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -17890,7 +21371,7 @@
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
+      <c r="W9" s="36"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
@@ -17922,8 +21403,8 @@
       <c r="AZ9" s="26"/>
     </row>
     <row r="10" spans="1:52" ht="12">
-      <c r="A10" s="166"/>
-      <c r="B10" s="167"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -17944,7 +21425,7 @@
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
+      <c r="W10" s="36"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
@@ -17976,8 +21457,8 @@
       <c r="AZ10" s="26"/>
     </row>
     <row r="11" spans="1:52" ht="12">
-      <c r="A11" s="168"/>
-      <c r="B11" s="169"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="34"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -17998,7 +21479,7 @@
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
+      <c r="W11" s="37"/>
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="28"/>
@@ -18030,10 +21511,10 @@
       <c r="AZ11" s="26"/>
     </row>
     <row r="12" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="171"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -18054,7 +21535,7 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
+      <c r="W12" s="36"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
@@ -18072,7 +21553,9 @@
       <c r="AL12" s="25"/>
       <c r="AM12" s="25"/>
       <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
+      <c r="AO12" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="AP12" s="25"/>
       <c r="AQ12" s="25"/>
       <c r="AR12" s="25"/>
@@ -18086,8 +21569,8 @@
       <c r="AZ12" s="26"/>
     </row>
     <row r="13" spans="1:52" ht="12">
-      <c r="A13" s="172"/>
-      <c r="B13" s="173"/>
+      <c r="A13" s="173"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -18108,7 +21591,7 @@
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
+      <c r="W13" s="36"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
@@ -18140,8 +21623,8 @@
       <c r="AZ13" s="26"/>
     </row>
     <row r="14" spans="1:52" ht="12">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -18162,7 +21645,7 @@
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
+      <c r="W14" s="36"/>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
@@ -18194,8 +21677,8 @@
       <c r="AZ14" s="26"/>
     </row>
     <row r="15" spans="1:52" ht="12">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -18216,7 +21699,7 @@
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
+      <c r="W15" s="36"/>
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
@@ -18248,8 +21731,8 @@
       <c r="AZ15" s="26"/>
     </row>
     <row r="16" spans="1:52" ht="12">
-      <c r="A16" s="172"/>
-      <c r="B16" s="173"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -18270,7 +21753,7 @@
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
+      <c r="W16" s="36"/>
       <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
@@ -18302,8 +21785,8 @@
       <c r="AZ16" s="26"/>
     </row>
     <row r="17" spans="1:52" ht="12">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -18324,7 +21807,7 @@
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
+      <c r="W17" s="36"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
@@ -18356,8 +21839,8 @@
       <c r="AZ17" s="26"/>
     </row>
     <row r="18" spans="1:52" ht="12">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -18378,7 +21861,7 @@
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
+      <c r="W18" s="36"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
@@ -18410,8 +21893,8 @@
       <c r="AZ18" s="26"/>
     </row>
     <row r="19" spans="1:52" ht="12">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -18432,7 +21915,7 @@
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
+      <c r="W19" s="36"/>
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
@@ -18464,8 +21947,8 @@
       <c r="AZ19" s="26"/>
     </row>
     <row r="20" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -18486,7 +21969,7 @@
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
+      <c r="W20" s="36"/>
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
@@ -18518,8 +22001,8 @@
       <c r="AZ20" s="26"/>
     </row>
     <row r="21" spans="1:52" ht="11.25" customHeight="1">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -18540,7 +22023,7 @@
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
+      <c r="W21" s="36"/>
       <c r="X21" s="25"/>
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
@@ -18572,8 +22055,8 @@
       <c r="AZ21" s="26"/>
     </row>
     <row r="22" spans="1:52" ht="11.25" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -18594,7 +22077,7 @@
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
+      <c r="W22" s="36"/>
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
       <c r="Z22" s="25"/>
@@ -18626,8 +22109,8 @@
       <c r="AZ22" s="26"/>
     </row>
     <row r="23" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="173"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -18648,7 +22131,7 @@
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
+      <c r="W23" s="36"/>
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
@@ -18680,8 +22163,8 @@
       <c r="AZ23" s="26"/>
     </row>
     <row r="24" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A24" s="172"/>
-      <c r="B24" s="173"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -18702,7 +22185,7 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
+      <c r="W24" s="36"/>
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
@@ -18734,8 +22217,8 @@
       <c r="AZ24" s="26"/>
     </row>
     <row r="25" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="173"/>
+      <c r="A25" s="173"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -18756,7 +22239,7 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
+      <c r="W25" s="36"/>
       <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
@@ -18788,8 +22271,8 @@
       <c r="AZ25" s="26"/>
     </row>
     <row r="26" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
+      <c r="A26" s="173"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -18810,7 +22293,7 @@
       <c r="T26" s="25"/>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
@@ -18842,8 +22325,8 @@
       <c r="AZ26" s="26"/>
     </row>
     <row r="27" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
+      <c r="A27" s="173"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -18864,7 +22347,7 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
+      <c r="W27" s="36"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
@@ -18896,8 +22379,8 @@
       <c r="AZ27" s="26"/>
     </row>
     <row r="28" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
+      <c r="A28" s="173"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -18918,7 +22401,7 @@
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
+      <c r="W28" s="36"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
@@ -18950,8 +22433,8 @@
       <c r="AZ28" s="26"/>
     </row>
     <row r="29" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
+      <c r="A29" s="173"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -18972,7 +22455,7 @@
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
+      <c r="W29" s="36"/>
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
       <c r="Z29" s="25"/>
@@ -19004,8 +22487,8 @@
       <c r="AZ29" s="26"/>
     </row>
     <row r="30" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A30" s="172"/>
-      <c r="B30" s="173"/>
+      <c r="A30" s="173"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -19026,7 +22509,7 @@
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
+      <c r="W30" s="36"/>
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
       <c r="Z30" s="25"/>
@@ -19058,8 +22541,8 @@
       <c r="AZ30" s="26"/>
     </row>
     <row r="31" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A31" s="172"/>
-      <c r="B31" s="173"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -19080,7 +22563,7 @@
       <c r="T31" s="25"/>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
+      <c r="W31" s="36"/>
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
@@ -19112,8 +22595,8 @@
       <c r="AZ31" s="26"/>
     </row>
     <row r="32" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
+      <c r="A32" s="173"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -19134,7 +22617,7 @@
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
+      <c r="W32" s="36"/>
       <c r="X32" s="25"/>
       <c r="Y32" s="25"/>
       <c r="Z32" s="25"/>
@@ -19166,8 +22649,8 @@
       <c r="AZ32" s="26"/>
     </row>
     <row r="33" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -19188,7 +22671,7 @@
       <c r="T33" s="25"/>
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
+      <c r="W33" s="36"/>
       <c r="X33" s="25"/>
       <c r="Y33" s="25"/>
       <c r="Z33" s="25"/>
@@ -19220,8 +22703,8 @@
       <c r="AZ33" s="26"/>
     </row>
     <row r="34" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A34" s="172"/>
-      <c r="B34" s="173"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -19242,7 +22725,7 @@
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
+      <c r="W34" s="36"/>
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
       <c r="Z34" s="25"/>
@@ -19274,8 +22757,8 @@
       <c r="AZ34" s="26"/>
     </row>
     <row r="35" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A35" s="174"/>
-      <c r="B35" s="175"/>
+      <c r="A35" s="175"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="34"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -19296,7 +22779,7 @@
       <c r="T35" s="28"/>
       <c r="U35" s="28"/>
       <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
+      <c r="W35" s="37"/>
       <c r="X35" s="28"/>
       <c r="Y35" s="28"/>
       <c r="Z35" s="28"/>
@@ -19328,10 +22811,10 @@
       <c r="AZ35" s="26"/>
     </row>
     <row r="36" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A36" s="176" t="s">
+      <c r="A36" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="167"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -19384,8 +22867,8 @@
       <c r="AZ36" s="26"/>
     </row>
     <row r="37" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A37" s="176"/>
-      <c r="B37" s="167"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -19438,8 +22921,8 @@
       <c r="AZ37" s="26"/>
     </row>
     <row r="38" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A38" s="176"/>
-      <c r="B38" s="167"/>
+      <c r="A38" s="177"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -19492,8 +22975,8 @@
       <c r="AZ38" s="26"/>
     </row>
     <row r="39" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A39" s="176"/>
-      <c r="B39" s="167"/>
+      <c r="A39" s="177"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -19546,8 +23029,8 @@
       <c r="AZ39" s="26"/>
     </row>
     <row r="40" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A40" s="176"/>
-      <c r="B40" s="167"/>
+      <c r="A40" s="177"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -19600,8 +23083,8 @@
       <c r="AZ40" s="26"/>
     </row>
     <row r="41" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A41" s="176"/>
-      <c r="B41" s="167"/>
+      <c r="A41" s="177"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -19654,8 +23137,8 @@
       <c r="AZ41" s="26"/>
     </row>
     <row r="42" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A42" s="176"/>
-      <c r="B42" s="167"/>
+      <c r="A42" s="177"/>
+      <c r="B42" s="168"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -19708,8 +23191,8 @@
       <c r="AZ42" s="26"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A43" s="176"/>
-      <c r="B43" s="167"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="168"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -19762,8 +23245,8 @@
       <c r="AZ43" s="26"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A44" s="176"/>
-      <c r="B44" s="167"/>
+      <c r="A44" s="177"/>
+      <c r="B44" s="168"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -19816,8 +23299,8 @@
       <c r="AZ44" s="26"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A45" s="166"/>
-      <c r="B45" s="167"/>
+      <c r="A45" s="167"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -19870,8 +23353,8 @@
       <c r="AZ45" s="26"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A46" s="166"/>
-      <c r="B46" s="167"/>
+      <c r="A46" s="167"/>
+      <c r="B46" s="168"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -19924,8 +23407,8 @@
       <c r="AZ46" s="26"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A47" s="166"/>
-      <c r="B47" s="167"/>
+      <c r="A47" s="167"/>
+      <c r="B47" s="168"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -19978,8 +23461,8 @@
       <c r="AZ47" s="26"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A48" s="166"/>
-      <c r="B48" s="167"/>
+      <c r="A48" s="167"/>
+      <c r="B48" s="168"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -20032,8 +23515,8 @@
       <c r="AZ48" s="26"/>
     </row>
     <row r="49" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A49" s="177"/>
-      <c r="B49" s="178"/>
+      <c r="A49" s="178"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -20091,47 +23574,48 @@
     <mergeCell ref="A6:B11"/>
     <mergeCell ref="A12:B35"/>
     <mergeCell ref="A36:B49"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="A4:J5"/>
     <mergeCell ref="A1:S2"/>
-    <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AU1:AV2"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;8- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AT2"/>
+      <selection activeCell="X1" sqref="X1:AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
+    <col min="1" max="28" width="2.6640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="2.77734375" style="16" customWidth="1"/>
+    <col min="30" max="16384" width="2.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
       <c r="A1" s="136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -20173,21 +23657,23 @@
       <c r="AI1" s="148"/>
       <c r="AJ1" s="148"/>
       <c r="AK1" s="148"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
+      <c r="AL1" s="164">
+        <v>45537</v>
+      </c>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
       <c r="AU1" s="154" t="s">
         <v>14</v>
       </c>
       <c r="AV1" s="155"/>
       <c r="AW1" s="158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX1" s="159"/>
       <c r="AY1" s="160"/>
@@ -20236,7 +23722,9 @@
       <c r="AI2" s="151"/>
       <c r="AJ2" s="151"/>
       <c r="AK2" s="151"/>
-      <c r="AL2" s="153"/>
+      <c r="AL2" s="153" t="s">
+        <v>55</v>
+      </c>
       <c r="AM2" s="153"/>
       <c r="AN2" s="153"/>
       <c r="AO2" s="153"/>
@@ -20251,7 +23739,7 @@
       <c r="AX2" s="162"/>
       <c r="AY2" s="163"/>
     </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
+    <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52">
       <c r="A4" s="132" t="s">
         <v>17</v>
@@ -20266,7 +23754,7 @@
       <c r="I4" s="132"/>
       <c r="J4" s="132"/>
     </row>
-    <row r="5" spans="1:52" ht="11.25" thickBot="1">
+    <row r="5" spans="1:52" ht="10.199999999999999" thickBot="1">
       <c r="A5" s="133"/>
       <c r="B5" s="133"/>
       <c r="C5" s="133"/>
@@ -20279,10 +23767,10 @@
       <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:52" ht="12">
-      <c r="A6" s="164" t="s">
-        <v>16</v>
+      <c r="A6" s="165" t="s">
+        <v>37</v>
       </c>
-      <c r="B6" s="165"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -20291,7 +23779,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
@@ -20303,7 +23791,7 @@
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
       <c r="V6" s="23"/>
-      <c r="W6" s="35"/>
+      <c r="W6" s="23"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
@@ -20335,8 +23823,8 @@
       <c r="AZ6" s="26"/>
     </row>
     <row r="7" spans="1:52" ht="12">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -20345,7 +23833,7 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
@@ -20357,7 +23845,7 @@
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
-      <c r="W7" s="36"/>
+      <c r="W7" s="25"/>
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
@@ -20389,8 +23877,8 @@
       <c r="AZ7" s="26"/>
     </row>
     <row r="8" spans="1:52" ht="12">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -20399,7 +23887,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
@@ -20411,7 +23899,7 @@
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
-      <c r="W8" s="36"/>
+      <c r="W8" s="25"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
@@ -20443,8 +23931,8 @@
       <c r="AZ8" s="26"/>
     </row>
     <row r="9" spans="1:52" ht="12">
-      <c r="A9" s="166"/>
-      <c r="B9" s="167"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -20453,7 +23941,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
@@ -20465,7 +23953,7 @@
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
-      <c r="W9" s="36"/>
+      <c r="W9" s="25"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
@@ -20497,8 +23985,8 @@
       <c r="AZ9" s="26"/>
     </row>
     <row r="10" spans="1:52" ht="12">
-      <c r="A10" s="166"/>
-      <c r="B10" s="167"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -20507,7 +23995,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
@@ -20519,7 +24007,7 @@
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="36"/>
+      <c r="W10" s="25"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
@@ -20551,8 +24039,8 @@
       <c r="AZ10" s="26"/>
     </row>
     <row r="11" spans="1:52" ht="12">
-      <c r="A11" s="168"/>
-      <c r="B11" s="169"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="34"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -20561,7 +24049,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
@@ -20573,7 +24061,7 @@
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
-      <c r="W11" s="37"/>
+      <c r="W11" s="28"/>
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="28"/>
@@ -20605,10 +24093,10 @@
       <c r="AZ11" s="26"/>
     </row>
     <row r="12" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A12" s="170" t="s">
-        <v>39</v>
+      <c r="A12" s="171" t="s">
+        <v>49</v>
       </c>
-      <c r="B12" s="171"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -20617,7 +24105,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -20629,7 +24117,7 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
-      <c r="W12" s="36"/>
+      <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="25"/>
@@ -20661,8 +24149,8 @@
       <c r="AZ12" s="26"/>
     </row>
     <row r="13" spans="1:52" ht="12">
-      <c r="A13" s="172"/>
-      <c r="B13" s="173"/>
+      <c r="A13" s="173"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -20671,7 +24159,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -20683,7 +24171,7 @@
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
-      <c r="W13" s="36"/>
+      <c r="W13" s="25"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="25"/>
@@ -20715,8 +24203,8 @@
       <c r="AZ13" s="26"/>
     </row>
     <row r="14" spans="1:52" ht="12">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -20725,7 +24213,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -20737,7 +24225,7 @@
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="36"/>
+      <c r="W14" s="25"/>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
@@ -20769,8 +24257,8 @@
       <c r="AZ14" s="26"/>
     </row>
     <row r="15" spans="1:52" ht="12">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -20779,7 +24267,7 @@
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
@@ -20791,7 +24279,7 @@
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
-      <c r="W15" s="36"/>
+      <c r="W15" s="25"/>
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
@@ -20823,8 +24311,8 @@
       <c r="AZ15" s="26"/>
     </row>
     <row r="16" spans="1:52" ht="12">
-      <c r="A16" s="172"/>
-      <c r="B16" s="173"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -20833,7 +24321,7 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
@@ -20845,7 +24333,7 @@
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
-      <c r="W16" s="36"/>
+      <c r="W16" s="25"/>
       <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
@@ -20877,8 +24365,8 @@
       <c r="AZ16" s="26"/>
     </row>
     <row r="17" spans="1:52" ht="12">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
@@ -20887,7 +24375,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
@@ -20899,7 +24387,7 @@
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
-      <c r="W17" s="36"/>
+      <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="25"/>
@@ -20931,8 +24419,8 @@
       <c r="AZ17" s="26"/>
     </row>
     <row r="18" spans="1:52" ht="12">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -20941,7 +24429,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
@@ -20953,7 +24441,7 @@
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
-      <c r="W18" s="36"/>
+      <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="25"/>
@@ -20985,8 +24473,8 @@
       <c r="AZ18" s="26"/>
     </row>
     <row r="19" spans="1:52" ht="12">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -20995,7 +24483,7 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
@@ -21007,7 +24495,7 @@
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
-      <c r="W19" s="36"/>
+      <c r="W19" s="25"/>
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
       <c r="Z19" s="25"/>
@@ -21039,8 +24527,8 @@
       <c r="AZ19" s="26"/>
     </row>
     <row r="20" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -21049,7 +24537,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
@@ -21061,7 +24549,7 @@
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
-      <c r="W20" s="36"/>
+      <c r="W20" s="25"/>
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
@@ -21093,8 +24581,8 @@
       <c r="AZ20" s="26"/>
     </row>
     <row r="21" spans="1:52" ht="11.25" customHeight="1">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -21103,7 +24591,7 @@
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -21115,7 +24603,7 @@
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="36"/>
+      <c r="W21" s="25"/>
       <c r="X21" s="25"/>
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
@@ -21147,8 +24635,8 @@
       <c r="AZ21" s="26"/>
     </row>
     <row r="22" spans="1:52" ht="11.25" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -21157,7 +24645,7 @@
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -21169,7 +24657,7 @@
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
-      <c r="W22" s="36"/>
+      <c r="W22" s="25"/>
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
       <c r="Z22" s="25"/>
@@ -21201,8 +24689,8 @@
       <c r="AZ22" s="26"/>
     </row>
     <row r="23" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="173"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -21211,7 +24699,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -21223,7 +24711,7 @@
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="36"/>
+      <c r="W23" s="25"/>
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
@@ -21255,8 +24743,8 @@
       <c r="AZ23" s="26"/>
     </row>
     <row r="24" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A24" s="172"/>
-      <c r="B24" s="173"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -21265,7 +24753,7 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
@@ -21277,7 +24765,7 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="36"/>
+      <c r="W24" s="25"/>
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
@@ -21309,8 +24797,8 @@
       <c r="AZ24" s="26"/>
     </row>
     <row r="25" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="173"/>
+      <c r="A25" s="173"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -21319,7 +24807,7 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
@@ -21331,7 +24819,7 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="36"/>
+      <c r="W25" s="25"/>
       <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
@@ -21363,8 +24851,8 @@
       <c r="AZ25" s="26"/>
     </row>
     <row r="26" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
+      <c r="A26" s="173"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -21373,7 +24861,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
@@ -21385,7 +24873,7 @@
       <c r="T26" s="25"/>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
-      <c r="W26" s="36"/>
+      <c r="W26" s="25"/>
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
@@ -21417,8 +24905,8 @@
       <c r="AZ26" s="26"/>
     </row>
     <row r="27" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
+      <c r="A27" s="173"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -21427,7 +24915,7 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
@@ -21439,7 +24927,7 @@
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="36"/>
+      <c r="W27" s="25"/>
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
@@ -21471,8 +24959,8 @@
       <c r="AZ27" s="26"/>
     </row>
     <row r="28" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
+      <c r="A28" s="173"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -21481,7 +24969,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
@@ -21493,7 +24981,7 @@
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
-      <c r="W28" s="36"/>
+      <c r="W28" s="25"/>
       <c r="X28" s="25"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
@@ -21525,8 +25013,8 @@
       <c r="AZ28" s="26"/>
     </row>
     <row r="29" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
+      <c r="A29" s="173"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -21535,7 +25023,7 @@
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
@@ -21547,7 +25035,7 @@
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
-      <c r="W29" s="36"/>
+      <c r="W29" s="25"/>
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
       <c r="Z29" s="25"/>
@@ -21579,8 +25067,8 @@
       <c r="AZ29" s="26"/>
     </row>
     <row r="30" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A30" s="172"/>
-      <c r="B30" s="173"/>
+      <c r="A30" s="173"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -21589,7 +25077,7 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
@@ -21601,7 +25089,7 @@
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
-      <c r="W30" s="36"/>
+      <c r="W30" s="25"/>
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
       <c r="Z30" s="25"/>
@@ -21633,8 +25121,8 @@
       <c r="AZ30" s="26"/>
     </row>
     <row r="31" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A31" s="172"/>
-      <c r="B31" s="173"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -21643,7 +25131,7 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
@@ -21655,7 +25143,7 @@
       <c r="T31" s="25"/>
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
-      <c r="W31" s="36"/>
+      <c r="W31" s="25"/>
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
       <c r="Z31" s="25"/>
@@ -21687,8 +25175,8 @@
       <c r="AZ31" s="26"/>
     </row>
     <row r="32" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
+      <c r="A32" s="173"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -21697,7 +25185,7 @@
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
@@ -21709,7 +25197,7 @@
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
-      <c r="W32" s="36"/>
+      <c r="W32" s="25"/>
       <c r="X32" s="25"/>
       <c r="Y32" s="25"/>
       <c r="Z32" s="25"/>
@@ -21741,8 +25229,8 @@
       <c r="AZ32" s="26"/>
     </row>
     <row r="33" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -21751,7 +25239,7 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
@@ -21763,7 +25251,7 @@
       <c r="T33" s="25"/>
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
-      <c r="W33" s="36"/>
+      <c r="W33" s="25"/>
       <c r="X33" s="25"/>
       <c r="Y33" s="25"/>
       <c r="Z33" s="25"/>
@@ -21795,8 +25283,8 @@
       <c r="AZ33" s="26"/>
     </row>
     <row r="34" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A34" s="172"/>
-      <c r="B34" s="173"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -21805,7 +25293,7 @@
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
@@ -21817,7 +25305,7 @@
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
-      <c r="W34" s="36"/>
+      <c r="W34" s="25"/>
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
       <c r="Z34" s="25"/>
@@ -21849,8 +25337,8 @@
       <c r="AZ34" s="26"/>
     </row>
     <row r="35" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A35" s="174"/>
-      <c r="B35" s="175"/>
+      <c r="A35" s="175"/>
+      <c r="B35" s="176"/>
       <c r="C35" s="34"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -21859,7 +25347,7 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
+      <c r="K35" s="37"/>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
@@ -21871,7 +25359,7 @@
       <c r="T35" s="28"/>
       <c r="U35" s="28"/>
       <c r="V35" s="28"/>
-      <c r="W35" s="37"/>
+      <c r="W35" s="28"/>
       <c r="X35" s="28"/>
       <c r="Y35" s="28"/>
       <c r="Z35" s="28"/>
@@ -21903,10 +25391,10 @@
       <c r="AZ35" s="26"/>
     </row>
     <row r="36" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A36" s="176" t="s">
-        <v>37</v>
+      <c r="A36" s="177" t="s">
+        <v>16</v>
       </c>
-      <c r="B36" s="167"/>
+      <c r="B36" s="168"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -21959,8 +25447,8 @@
       <c r="AZ36" s="26"/>
     </row>
     <row r="37" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A37" s="176"/>
-      <c r="B37" s="167"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -22013,8 +25501,8 @@
       <c r="AZ37" s="26"/>
     </row>
     <row r="38" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A38" s="176"/>
-      <c r="B38" s="167"/>
+      <c r="A38" s="177"/>
+      <c r="B38" s="168"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -22067,8 +25555,8 @@
       <c r="AZ38" s="26"/>
     </row>
     <row r="39" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A39" s="176"/>
-      <c r="B39" s="167"/>
+      <c r="A39" s="177"/>
+      <c r="B39" s="168"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -22121,8 +25609,8 @@
       <c r="AZ39" s="26"/>
     </row>
     <row r="40" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A40" s="176"/>
-      <c r="B40" s="167"/>
+      <c r="A40" s="177"/>
+      <c r="B40" s="168"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -22175,8 +25663,8 @@
       <c r="AZ40" s="26"/>
     </row>
     <row r="41" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A41" s="176"/>
-      <c r="B41" s="167"/>
+      <c r="A41" s="177"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -22229,8 +25717,8 @@
       <c r="AZ41" s="26"/>
     </row>
     <row r="42" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A42" s="176"/>
-      <c r="B42" s="167"/>
+      <c r="A42" s="177"/>
+      <c r="B42" s="168"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -22283,8 +25771,8 @@
       <c r="AZ42" s="26"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A43" s="176"/>
-      <c r="B43" s="167"/>
+      <c r="A43" s="177"/>
+      <c r="B43" s="168"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -22337,8 +25825,8 @@
       <c r="AZ43" s="26"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A44" s="176"/>
-      <c r="B44" s="167"/>
+      <c r="A44" s="177"/>
+      <c r="B44" s="168"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -22391,8 +25879,8 @@
       <c r="AZ44" s="26"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A45" s="166"/>
-      <c r="B45" s="167"/>
+      <c r="A45" s="167"/>
+      <c r="B45" s="168"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -22445,8 +25933,8 @@
       <c r="AZ45" s="26"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A46" s="166"/>
-      <c r="B46" s="167"/>
+      <c r="A46" s="167"/>
+      <c r="B46" s="168"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -22499,8 +25987,8 @@
       <c r="AZ46" s="26"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A47" s="166"/>
-      <c r="B47" s="167"/>
+      <c r="A47" s="167"/>
+      <c r="B47" s="168"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -22553,8 +26041,8 @@
       <c r="AZ47" s="26"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A48" s="166"/>
-      <c r="B48" s="167"/>
+      <c r="A48" s="167"/>
+      <c r="B48" s="168"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -22607,8 +26095,8 @@
       <c r="AZ48" s="26"/>
     </row>
     <row r="49" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A49" s="177"/>
-      <c r="B49" s="178"/>
+      <c r="A49" s="178"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -22686,2580 +26174,6 @@
     <oddFooter>&amp;C&amp;8- &amp;P -</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ50"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AT2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="28" width="2.625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="2.75" style="16" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="148" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="148" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="150"/>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="150"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="154" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV1" s="155"/>
-      <c r="AW1" s="158">
-        <v>3</v>
-      </c>
-      <c r="AX1" s="159"/>
-      <c r="AY1" s="160"/>
-    </row>
-    <row r="2" spans="1:52" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="152" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="152"/>
-      <c r="AH2" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="151"/>
-      <c r="AJ2" s="151"/>
-      <c r="AK2" s="151"/>
-      <c r="AL2" s="153"/>
-      <c r="AM2" s="153"/>
-      <c r="AN2" s="153"/>
-      <c r="AO2" s="153"/>
-      <c r="AP2" s="153"/>
-      <c r="AQ2" s="153"/>
-      <c r="AR2" s="153"/>
-      <c r="AS2" s="153"/>
-      <c r="AT2" s="153"/>
-      <c r="AU2" s="156"/>
-      <c r="AV2" s="157"/>
-      <c r="AW2" s="161"/>
-      <c r="AX2" s="162"/>
-      <c r="AY2" s="163"/>
-    </row>
-    <row r="3" spans="1:52" ht="11.25" thickTop="1"/>
-    <row r="4" spans="1:52">
-      <c r="A4" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-    </row>
-    <row r="5" spans="1:52" ht="11.25" thickBot="1">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-    </row>
-    <row r="6" spans="1:52" ht="12">
-      <c r="A6" s="164" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="23"/>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="26"/>
-    </row>
-    <row r="7" spans="1:52" ht="12">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="26"/>
-    </row>
-    <row r="8" spans="1:52" ht="12">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="26"/>
-    </row>
-    <row r="9" spans="1:52" ht="12">
-      <c r="A9" s="166"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="26"/>
-    </row>
-    <row r="10" spans="1:52" ht="12">
-      <c r="A10" s="166"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="26"/>
-    </row>
-    <row r="11" spans="1:52" ht="12">
-      <c r="A11" s="168"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28"/>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="26"/>
-    </row>
-    <row r="12" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A12" s="170" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="25"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="26"/>
-    </row>
-    <row r="13" spans="1:52" ht="12">
-      <c r="A13" s="172"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="26"/>
-    </row>
-    <row r="14" spans="1:52" ht="12">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="27"/>
-      <c r="AZ14" s="26"/>
-    </row>
-    <row r="15" spans="1:52" ht="12">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="26"/>
-    </row>
-    <row r="16" spans="1:52" ht="12">
-      <c r="A16" s="172"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="26"/>
-    </row>
-    <row r="17" spans="1:52" ht="12">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25"/>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="25"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="25"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="26"/>
-    </row>
-    <row r="18" spans="1:52" ht="12">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="25"/>
-      <c r="AR18" s="25"/>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="25"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="25"/>
-      <c r="AY18" s="27"/>
-      <c r="AZ18" s="26"/>
-    </row>
-    <row r="19" spans="1:52" ht="12">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="25"/>
-      <c r="AR19" s="25"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="27"/>
-      <c r="AZ19" s="26"/>
-    </row>
-    <row r="20" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="25"/>
-      <c r="AR20" s="25"/>
-      <c r="AS20" s="25"/>
-      <c r="AT20" s="25"/>
-      <c r="AU20" s="25"/>
-      <c r="AV20" s="25"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="25"/>
-      <c r="AY20" s="27"/>
-      <c r="AZ20" s="26"/>
-    </row>
-    <row r="21" spans="1:52" ht="11.25" customHeight="1">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25"/>
-      <c r="AQ21" s="25"/>
-      <c r="AR21" s="25"/>
-      <c r="AS21" s="25"/>
-      <c r="AT21" s="25"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="25"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="25"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="26"/>
-    </row>
-    <row r="22" spans="1:52" ht="11.25" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="27"/>
-      <c r="AZ22" s="26"/>
-    </row>
-    <row r="23" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
-      <c r="AQ23" s="25"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="25"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="25"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="26"/>
-    </row>
-    <row r="24" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A24" s="172"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="25"/>
-      <c r="AW24" s="25"/>
-      <c r="AX24" s="25"/>
-      <c r="AY24" s="27"/>
-      <c r="AZ24" s="26"/>
-    </row>
-    <row r="25" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="25"/>
-      <c r="AV25" s="25"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="25"/>
-      <c r="AY25" s="27"/>
-      <c r="AZ25" s="26"/>
-    </row>
-    <row r="26" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="27"/>
-      <c r="AZ26" s="26"/>
-    </row>
-    <row r="27" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
-      <c r="AQ27" s="25"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="25"/>
-      <c r="AV27" s="25"/>
-      <c r="AW27" s="25"/>
-      <c r="AX27" s="25"/>
-      <c r="AY27" s="27"/>
-      <c r="AZ27" s="26"/>
-    </row>
-    <row r="28" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="25"/>
-      <c r="AY28" s="27"/>
-      <c r="AZ28" s="26"/>
-    </row>
-    <row r="29" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="25"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="25"/>
-      <c r="AY29" s="27"/>
-      <c r="AZ29" s="26"/>
-    </row>
-    <row r="30" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A30" s="172"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
-      <c r="AU30" s="25"/>
-      <c r="AV30" s="25"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="25"/>
-      <c r="AY30" s="27"/>
-      <c r="AZ30" s="26"/>
-    </row>
-    <row r="31" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A31" s="172"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="25"/>
-      <c r="AP31" s="25"/>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="25"/>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="25"/>
-      <c r="AU31" s="25"/>
-      <c r="AV31" s="25"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="25"/>
-      <c r="AY31" s="27"/>
-      <c r="AZ31" s="26"/>
-    </row>
-    <row r="32" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="25"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="25"/>
-      <c r="AY32" s="27"/>
-      <c r="AZ32" s="26"/>
-    </row>
-    <row r="33" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="25"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="25"/>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="25"/>
-      <c r="AY33" s="27"/>
-      <c r="AZ33" s="26"/>
-    </row>
-    <row r="34" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A34" s="172"/>
-      <c r="B34" s="173"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="25"/>
-      <c r="AJ34" s="25"/>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="25"/>
-      <c r="AP34" s="25"/>
-      <c r="AQ34" s="25"/>
-      <c r="AR34" s="25"/>
-      <c r="AS34" s="25"/>
-      <c r="AT34" s="25"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="25"/>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="25"/>
-      <c r="AY34" s="27"/>
-      <c r="AZ34" s="26"/>
-    </row>
-    <row r="35" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A35" s="174"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="28"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28"/>
-      <c r="AN35" s="28"/>
-      <c r="AO35" s="28"/>
-      <c r="AP35" s="28"/>
-      <c r="AQ35" s="28"/>
-      <c r="AR35" s="28"/>
-      <c r="AS35" s="28"/>
-      <c r="AT35" s="28"/>
-      <c r="AU35" s="28"/>
-      <c r="AV35" s="28"/>
-      <c r="AW35" s="28"/>
-      <c r="AX35" s="28"/>
-      <c r="AY35" s="29"/>
-      <c r="AZ35" s="26"/>
-    </row>
-    <row r="36" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A36" s="176" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="25"/>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="25"/>
-      <c r="AY36" s="27"/>
-      <c r="AZ36" s="26"/>
-    </row>
-    <row r="37" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A37" s="176"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="25"/>
-      <c r="AP37" s="25"/>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="25"/>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="25"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="25"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="25"/>
-      <c r="AY37" s="27"/>
-      <c r="AZ37" s="26"/>
-    </row>
-    <row r="38" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A38" s="176"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="25"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
-      <c r="AG38" s="25"/>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="25"/>
-      <c r="AJ38" s="25"/>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="25"/>
-      <c r="AM38" s="25"/>
-      <c r="AN38" s="25"/>
-      <c r="AO38" s="25"/>
-      <c r="AP38" s="25"/>
-      <c r="AQ38" s="25"/>
-      <c r="AR38" s="25"/>
-      <c r="AS38" s="25"/>
-      <c r="AT38" s="25"/>
-      <c r="AU38" s="25"/>
-      <c r="AV38" s="25"/>
-      <c r="AW38" s="25"/>
-      <c r="AX38" s="25"/>
-      <c r="AY38" s="27"/>
-      <c r="AZ38" s="26"/>
-    </row>
-    <row r="39" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A39" s="176"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="25"/>
-      <c r="AP39" s="25"/>
-      <c r="AQ39" s="25"/>
-      <c r="AR39" s="25"/>
-      <c r="AS39" s="25"/>
-      <c r="AT39" s="25"/>
-      <c r="AU39" s="25"/>
-      <c r="AV39" s="25"/>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="25"/>
-      <c r="AY39" s="27"/>
-      <c r="AZ39" s="26"/>
-    </row>
-    <row r="40" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A40" s="176"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="25"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="25"/>
-      <c r="AP40" s="25"/>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="25"/>
-      <c r="AS40" s="25"/>
-      <c r="AT40" s="25"/>
-      <c r="AU40" s="25"/>
-      <c r="AV40" s="25"/>
-      <c r="AW40" s="25"/>
-      <c r="AX40" s="25"/>
-      <c r="AY40" s="27"/>
-      <c r="AZ40" s="26"/>
-    </row>
-    <row r="41" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A41" s="176"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="25"/>
-      <c r="AJ41" s="25"/>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="25"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="25"/>
-      <c r="AP41" s="25"/>
-      <c r="AQ41" s="25"/>
-      <c r="AR41" s="25"/>
-      <c r="AS41" s="25"/>
-      <c r="AT41" s="25"/>
-      <c r="AU41" s="25"/>
-      <c r="AV41" s="25"/>
-      <c r="AW41" s="25"/>
-      <c r="AX41" s="25"/>
-      <c r="AY41" s="27"/>
-      <c r="AZ41" s="26"/>
-    </row>
-    <row r="42" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A42" s="176"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="25"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="25"/>
-      <c r="AM42" s="25"/>
-      <c r="AN42" s="25"/>
-      <c r="AO42" s="25"/>
-      <c r="AP42" s="25"/>
-      <c r="AQ42" s="25"/>
-      <c r="AR42" s="25"/>
-      <c r="AS42" s="25"/>
-      <c r="AT42" s="25"/>
-      <c r="AU42" s="25"/>
-      <c r="AV42" s="25"/>
-      <c r="AW42" s="25"/>
-      <c r="AX42" s="25"/>
-      <c r="AY42" s="27"/>
-      <c r="AZ42" s="26"/>
-    </row>
-    <row r="43" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A43" s="176"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="25"/>
-      <c r="AO43" s="25"/>
-      <c r="AP43" s="25"/>
-      <c r="AQ43" s="25"/>
-      <c r="AR43" s="25"/>
-      <c r="AS43" s="25"/>
-      <c r="AT43" s="25"/>
-      <c r="AU43" s="25"/>
-      <c r="AV43" s="25"/>
-      <c r="AW43" s="25"/>
-      <c r="AX43" s="25"/>
-      <c r="AY43" s="27"/>
-      <c r="AZ43" s="26"/>
-    </row>
-    <row r="44" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A44" s="176"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="25"/>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="25"/>
-      <c r="AJ44" s="25"/>
-      <c r="AK44" s="25"/>
-      <c r="AL44" s="25"/>
-      <c r="AM44" s="25"/>
-      <c r="AN44" s="25"/>
-      <c r="AO44" s="25"/>
-      <c r="AP44" s="25"/>
-      <c r="AQ44" s="25"/>
-      <c r="AR44" s="25"/>
-      <c r="AS44" s="25"/>
-      <c r="AT44" s="25"/>
-      <c r="AU44" s="25"/>
-      <c r="AV44" s="25"/>
-      <c r="AW44" s="25"/>
-      <c r="AX44" s="25"/>
-      <c r="AY44" s="27"/>
-      <c r="AZ44" s="26"/>
-    </row>
-    <row r="45" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A45" s="166"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="25"/>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="25"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="25"/>
-      <c r="AP45" s="25"/>
-      <c r="AQ45" s="25"/>
-      <c r="AR45" s="25"/>
-      <c r="AS45" s="25"/>
-      <c r="AT45" s="25"/>
-      <c r="AU45" s="25"/>
-      <c r="AV45" s="25"/>
-      <c r="AW45" s="25"/>
-      <c r="AX45" s="25"/>
-      <c r="AY45" s="27"/>
-      <c r="AZ45" s="26"/>
-    </row>
-    <row r="46" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A46" s="166"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="25"/>
-      <c r="AP46" s="25"/>
-      <c r="AQ46" s="25"/>
-      <c r="AR46" s="25"/>
-      <c r="AS46" s="25"/>
-      <c r="AT46" s="25"/>
-      <c r="AU46" s="25"/>
-      <c r="AV46" s="25"/>
-      <c r="AW46" s="25"/>
-      <c r="AX46" s="25"/>
-      <c r="AY46" s="27"/>
-      <c r="AZ46" s="26"/>
-    </row>
-    <row r="47" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A47" s="166"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25"/>
-      <c r="AM47" s="25"/>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="25"/>
-      <c r="AP47" s="25"/>
-      <c r="AQ47" s="25"/>
-      <c r="AR47" s="25"/>
-      <c r="AS47" s="25"/>
-      <c r="AT47" s="25"/>
-      <c r="AU47" s="25"/>
-      <c r="AV47" s="25"/>
-      <c r="AW47" s="25"/>
-      <c r="AX47" s="25"/>
-      <c r="AY47" s="27"/>
-      <c r="AZ47" s="26"/>
-    </row>
-    <row r="48" spans="1:52" ht="10.5" customHeight="1">
-      <c r="A48" s="166"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="25"/>
-      <c r="AP48" s="25"/>
-      <c r="AQ48" s="25"/>
-      <c r="AR48" s="25"/>
-      <c r="AS48" s="25"/>
-      <c r="AT48" s="25"/>
-      <c r="AU48" s="25"/>
-      <c r="AV48" s="25"/>
-      <c r="AW48" s="25"/>
-      <c r="AX48" s="25"/>
-      <c r="AY48" s="27"/>
-      <c r="AZ48" s="26"/>
-    </row>
-    <row r="49" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A49" s="177"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30"/>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="30"/>
-      <c r="AH49" s="30"/>
-      <c r="AI49" s="30"/>
-      <c r="AJ49" s="30"/>
-      <c r="AK49" s="30"/>
-      <c r="AL49" s="30"/>
-      <c r="AM49" s="30"/>
-      <c r="AN49" s="30"/>
-      <c r="AO49" s="30"/>
-      <c r="AP49" s="30"/>
-      <c r="AQ49" s="30"/>
-      <c r="AR49" s="30"/>
-      <c r="AS49" s="30"/>
-      <c r="AT49" s="30"/>
-      <c r="AU49" s="30"/>
-      <c r="AV49" s="30"/>
-      <c r="AW49" s="30"/>
-      <c r="AX49" s="30"/>
-      <c r="AY49" s="31"/>
-      <c r="AZ49" s="26"/>
-    </row>
-    <row r="50" spans="1:52" ht="10.5" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:B11"/>
-    <mergeCell ref="A12:B35"/>
-    <mergeCell ref="A36:B49"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
-  </mergeCells>
-  <phoneticPr fontId="13"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;8- &amp;P -</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>